--- a/biology/Botanique/Parc_national_d'Itchnia/Parc_national_d'Itchnia.xlsx
+++ b/biology/Botanique/Parc_national_d'Itchnia/Parc_national_d'Itchnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_national_d%27Itchnia</t>
+          <t>Parc_national_d'Itchnia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel national d'Itchnia (en ukrainien : Ічнянський національний природний парк) est un parc national situé dans l’oblast de Tchernihiv, au nord-est de l’Ukraine.
-Le parc a été créé par le décret présidentiel du 21 avril 2004[2] pour protéger la faune et la flore du bassin du Dniepr, la source de la Oudaï et la rivière Itchenka. 
+Le parc a été créé par le décret présidentiel du 21 avril 2004 pour protéger la faune et la flore du bassin du Dniepr, la source de la Oudaï et la rivière Itchenka. 
 Ouvert au public, il y existe un hôtel pour les visiteurs. Elle héberge des plantes sur la liste rouge comme le Dactylorhize de mai ou l'Épipactis à larges feuilles.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_national_d%27Itchnia</t>
+          <t>Parc_national_d'Itchnia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Voir Aussi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste des parcs nationaux de l'Ukraine .</t>
         </is>
